--- a/2020-05-27stipulationsaman.xlsx
+++ b/2020-05-27stipulationsaman.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lumenci 3\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BA3E48-C462-4C5E-AE0E-4D8E5EB5DADF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892C8BA6-39A6-49F0-B236-B2D81F81D94D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Email Scrapped: saman</t>
   </si>
@@ -40,12 +40,12 @@
     <t>Docket Link</t>
   </si>
   <si>
+    <t>Docket Date extracted from Docket Text</t>
+  </si>
+  <si>
     <t xml:space="preserve">fury technologies llc (8,965,598) </t>
   </si>
   <si>
-    <t>response by the court to notice to filer of deficiencies in electronically filed documents by clerk re: stipulation filed 5/15/20 15 &lt;http://insight.rpxcorp.com/litigation_documents/13787466?utm_campaign=rpxs_custom_alert&amp;utm_content=district_court&amp;utm_medium=email&amp;utm_source=document&gt;  . the document is stricken and counsel is ordered to file an amended or corrected document immediately. (gk) _x000D_</t>
-  </si>
-  <si>
     <t>http://insight.rpxcorp.com/campaigns/79637?utm_campaign=rpxs_custom_alert&amp;utm_content=district_court&amp;utm_medium=email&amp;utm_source=campaign</t>
   </si>
   <si>
@@ -73,6 +73,9 @@
     <t>stipulation to extend time to respond to the complaint to 06/23/20 - filed by mentone solutions llc (g. pazuniak) _x000D_</t>
   </si>
   <si>
+    <t>2020-06-23 00:00:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">mod stack llc (7,460,520) </t>
   </si>
   <si>
@@ -82,6 +85,9 @@
     <t>http://insight.rpxcorp.com/campaigns/44071?utm_campaign=rpxs_custom_alert&amp;utm_content=district_court&amp;utm_medium=email&amp;utm_source=campaign</t>
   </si>
   <si>
+    <t>2020-06-19 00:00:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">ruby sands llc (6,891,633) </t>
   </si>
   <si>
@@ -92,6 +98,10 @@
   </si>
   <si>
     <t>http://insight.rpxcorp.com/litigation_documents/13789309?utm_campaign=rpxs_custom_alert&amp;utm_content=district_court&amp;utm_medium=email&amp;utm_source=document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response by the court to notice to filer of deficiencies in electronically filed documents by clerk re: stipulation filed 5/15/20 15 &lt;http://insight.rpxcorp.com/litigation_documents/13787466?utm_campaign=rpxs_custom_alert&amp;utm_content=district_court&amp;utm_medium=email&amp;utm_source=document&gt;  . the document is stricken and counsel is ordered to file an amended or corrected document immediately. (gk) 
+</t>
   </si>
 </sst>
 </file>
@@ -118,8 +128,9 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -148,10 +159,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,21 +466,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.140625" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" customWidth="1"/>
-    <col min="4" max="4" width="37.85546875" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,7 +489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -489,13 +502,16 @@
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
         <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -504,9 +520,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -518,7 +534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -532,7 +548,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -542,30 +558,36 @@
       <c r="C6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
